--- a/excel/importEmployee.xlsx
+++ b/excel/importEmployee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\do_an\do_an_trang\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DE3DBD-1BDD-447A-8736-A6C2A800F95E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C98A62-ADD7-454D-B679-3939D2490B50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>birthday</t>
   </si>
@@ -78,7 +78,28 @@
     <t>IT6</t>
   </si>
   <si>
-    <t>Tran</t>
+    <t>IT7</t>
+  </si>
+  <si>
+    <t>Lê Xuân</t>
+  </si>
+  <si>
+    <t>Thành</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>thanhlx1@gmail.com</t>
+  </si>
+  <si>
+    <t>nam</t>
+  </si>
+  <si>
+    <t>Phó phòng</t>
+  </si>
+  <si>
+    <t>Trang</t>
   </si>
 </sst>
 </file>
@@ -480,7 +501,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1">
         <v>999997890</v>
@@ -502,6 +523,38 @@
       </c>
       <c r="J2" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>999999912</v>
+      </c>
+      <c r="E3" s="3">
+        <v>32023</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -510,6 +563,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{6D8DA684-6894-410F-9073-A5B29ABD758C}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{8135E57F-7762-4023-869A-749A0EBF418E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/importEmployee.xlsx
+++ b/excel/importEmployee.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\do_an\do_an_trang\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C98A62-ADD7-454D-B679-3939D2490B50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E34F361-5FAE-4601-B370-AF6FEA5C36B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>birthday</t>
   </si>
@@ -54,59 +54,83 @@
     <t>gener</t>
   </si>
   <si>
-    <t>nữ</t>
-  </si>
-  <si>
     <t>employee_code</t>
   </si>
   <si>
-    <t xml:space="preserve">Lê Thu </t>
-  </si>
-  <si>
     <t>department</t>
   </si>
   <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Tester</t>
-  </si>
-  <si>
-    <t>tranglt1@gmail.com</t>
-  </si>
-  <si>
-    <t>IT6</t>
-  </si>
-  <si>
-    <t>IT7</t>
-  </si>
-  <si>
     <t>Lê Xuân</t>
   </si>
   <si>
-    <t>Thành</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
-    <t>thanhlx1@gmail.com</t>
-  </si>
-  <si>
-    <t>nam</t>
-  </si>
-  <si>
-    <t>Phó phòng</t>
-  </si>
-  <si>
-    <t>Trang</t>
+    <t xml:space="preserve">Nguyễn Thu </t>
+  </si>
+  <si>
+    <t>KH3</t>
+  </si>
+  <si>
+    <t>KH5</t>
+  </si>
+  <si>
+    <t>NS7</t>
+  </si>
+  <si>
+    <t>IT8</t>
+  </si>
+  <si>
+    <t>Thanh hóa</t>
+  </si>
+  <si>
+    <t>Nghệ An</t>
+  </si>
+  <si>
+    <t>Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>Lê Bá</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Thảo</t>
+  </si>
+  <si>
+    <t>thaont1@gmail.com</t>
+  </si>
+  <si>
+    <t>Thanh</t>
+  </si>
+  <si>
+    <t>Thắng</t>
+  </si>
+  <si>
+    <t>Minh</t>
+  </si>
+  <si>
+    <t>Lê Thanh</t>
+  </si>
+  <si>
+    <t>minhlx1@gmail.com</t>
+  </si>
+  <si>
+    <t>thanh.lt1@gmail.com</t>
+  </si>
+  <si>
+    <t>thanglb1@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +142,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -144,7 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -152,15 +182,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -442,30 +480,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="6" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="5"/>
+    <col min="9" max="9" width="13.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -474,7 +513,7 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -487,7 +526,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -495,76 +534,194 @@
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7">
+        <v>989987890</v>
+      </c>
+      <c r="E2" s="8">
+        <v>35473</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1">
-        <v>999997890</v>
-      </c>
-      <c r="E2" s="3">
-        <v>35675</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="6">
+        <v>999999917</v>
+      </c>
+      <c r="E3" s="8">
+        <v>35767</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7">
+        <v>999977860</v>
+      </c>
+      <c r="E4" s="8">
+        <v>36134</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6">
+        <v>999969942</v>
+      </c>
+      <c r="E5" s="8">
+        <v>36196</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3">
-        <v>999999912</v>
-      </c>
-      <c r="E3" s="3">
-        <v>32023</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F4" s="2"/>
+      <c r="I5" s="4">
+        <v>3</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="E7" s="8"/>
+      <c r="G7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="E9" s="8"/>
+      <c r="G9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="E11" s="8"/>
+      <c r="G11" s="3"/>
+      <c r="J11" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{6D8DA684-6894-410F-9073-A5B29ABD758C}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{8135E57F-7762-4023-869A-749A0EBF418E}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{0F8FE3E7-1835-487C-959F-01E0A793ADF7}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{38C543FA-9DF0-4E4D-9916-6349A4EEE8E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>